--- a/app/config/tables/MIFSCAR/forms/MIFSCAR/MIFSCAR.xlsx
+++ b/app/config/tables/MIFSCAR/forms/MIFSCAR/MIFSCAR.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD54FC78-8F07-4623-AAEE-9DAE71BDAC9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CD7818-19FB-41FF-AE10-5F31BE3A3A2F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
     <sheet name="survey" sheetId="2" r:id="rId2"/>
-    <sheet name="choices" sheetId="3" r:id="rId3"/>
-    <sheet name="model" sheetId="4" r:id="rId4"/>
+    <sheet name="prompt_types" sheetId="5" r:id="rId3"/>
+    <sheet name="choices" sheetId="3" r:id="rId4"/>
+    <sheet name="model" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="124">
   <si>
     <t>setting_name</t>
   </si>
@@ -383,6 +384,24 @@
   </si>
   <si>
     <t>instance_name</t>
+  </si>
+  <si>
+    <t>prompt_type_name</t>
+  </si>
+  <si>
+    <t>elementType</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>custom_date</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Makes the date widget DD/MM/YYYY</t>
   </si>
 </sst>
 </file>
@@ -873,7 +892,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,7 +953,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="F4" t="s">
         <v>114</v>
@@ -1574,6 +1593,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E9C5AA-9540-45DB-BCC0-5EA98DDA6B0B}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -1785,18 +1854,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1816,7 +1886,7 @@
         <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>

--- a/app/config/tables/MIFSCAR/forms/MIFSCAR/MIFSCAR.xlsx
+++ b/app/config/tables/MIFSCAR/forms/MIFSCAR/MIFSCAR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CD7818-19FB-41FF-AE10-5F31BE3A3A2F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551523AD-D296-4EDD-9FE5-ECCFC89CF04E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/app/config/tables/MIFSCAR/forms/MIFSCAR/MIFSCAR.xlsx
+++ b/app/config/tables/MIFSCAR/forms/MIFSCAR/MIFSCAR.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551523AD-D296-4EDD-9FE5-ECCFC89CF04E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727F5C68-0BAB-46CE-95AB-907AE01CCEA8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="model" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -197,12 +198,6 @@
     <t>NCICA</t>
   </si>
   <si>
-    <t>Number of scars?</t>
-  </si>
-  <si>
-    <t>Numero de cicatriz?</t>
-  </si>
-  <si>
     <t>data('NCICA') &gt; 0</t>
   </si>
   <si>
@@ -402,6 +397,12 @@
   </si>
   <si>
     <t>Makes the date widget DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>How many scars?</t>
+  </si>
+  <si>
+    <t>Quantos cicatrizes?</t>
   </si>
 </sst>
 </file>
@@ -836,10 +837,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -866,15 +867,15 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
         <v>54</v>
@@ -890,9 +891,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,10 +954,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G4" t="s">
         <v>47</v>
@@ -1001,10 +1002,10 @@
         <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1022,7 +1023,7 @@
         <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1035,10 +1036,10 @@
         <v>44</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1046,16 +1047,16 @@
         <v>38</v>
       </c>
       <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
         <v>60</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>61</v>
-      </c>
-      <c r="G13" t="s">
-        <v>62</v>
-      </c>
-      <c r="H13" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1066,27 +1067,27 @@
         <v>32</v>
       </c>
       <c r="F14" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" t="s">
         <v>64</v>
-      </c>
-      <c r="G14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" t="s">
         <v>67</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>68</v>
-      </c>
-      <c r="G15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1104,38 +1105,38 @@
         <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -1143,13 +1144,13 @@
         <v>36</v>
       </c>
       <c r="F21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" t="s">
         <v>78</v>
-      </c>
-      <c r="G21" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -1167,7 +1168,7 @@
         <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -1180,10 +1181,10 @@
         <v>44</v>
       </c>
       <c r="G26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
@@ -1191,16 +1192,16 @@
         <v>38</v>
       </c>
       <c r="E27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" t="s">
         <v>60</v>
       </c>
-      <c r="F27" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" t="s">
-        <v>62</v>
-      </c>
       <c r="H27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -1211,27 +1212,27 @@
         <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" t="s">
         <v>67</v>
       </c>
-      <c r="F29" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" t="s">
-        <v>69</v>
-      </c>
       <c r="H29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -1249,38 +1250,38 @@
         <v>44</v>
       </c>
       <c r="G32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F33" t="s">
-        <v>87</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="H33" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -1288,13 +1289,13 @@
         <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -1312,7 +1313,7 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -1325,10 +1326,10 @@
         <v>44</v>
       </c>
       <c r="G40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -1336,16 +1337,16 @@
         <v>38</v>
       </c>
       <c r="E41" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" t="s">
+        <v>91</v>
+      </c>
+      <c r="G41" t="s">
         <v>60</v>
       </c>
-      <c r="F41" t="s">
-        <v>93</v>
-      </c>
-      <c r="G41" t="s">
-        <v>62</v>
-      </c>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -1356,27 +1357,27 @@
         <v>32</v>
       </c>
       <c r="F42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" t="s">
+        <v>93</v>
+      </c>
+      <c r="G43" t="s">
         <v>67</v>
       </c>
-      <c r="F43" t="s">
-        <v>95</v>
-      </c>
-      <c r="G43" t="s">
-        <v>69</v>
-      </c>
       <c r="H43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -1394,38 +1395,38 @@
         <v>44</v>
       </c>
       <c r="G46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="F47" t="s">
+        <v>94</v>
+      </c>
+      <c r="G47" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F47" t="s">
-        <v>96</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="H47" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1433,13 +1434,13 @@
         <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G49" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -1457,7 +1458,7 @@
         <v>39</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -1470,16 +1471,16 @@
         <v>38</v>
       </c>
       <c r="E54" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" t="s">
+        <v>98</v>
+      </c>
+      <c r="G54" t="s">
         <v>60</v>
       </c>
-      <c r="F54" t="s">
-        <v>100</v>
-      </c>
-      <c r="G54" t="s">
-        <v>62</v>
-      </c>
       <c r="H54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -1490,27 +1491,27 @@
         <v>32</v>
       </c>
       <c r="F55" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G55" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
+        <v>65</v>
+      </c>
+      <c r="F56" t="s">
+        <v>100</v>
+      </c>
+      <c r="G56" t="s">
         <v>67</v>
       </c>
-      <c r="F56" t="s">
-        <v>102</v>
-      </c>
-      <c r="G56" t="s">
-        <v>69</v>
-      </c>
       <c r="H56" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -1528,38 +1529,38 @@
         <v>44</v>
       </c>
       <c r="G59" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H59" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="F60" t="s">
+        <v>103</v>
+      </c>
+      <c r="G60" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="F60" t="s">
-        <v>105</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="H60" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F61" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -1567,13 +1568,13 @@
         <v>36</v>
       </c>
       <c r="F62" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G62" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H62" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -1596,7 +1597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E9C5AA-9540-45DB-BCC0-5EA98DDA6B0B}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD2"/>
     </sheetView>
@@ -1611,30 +1612,30 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1720,44 +1721,44 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>35</v>
@@ -1883,10 +1884,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -1894,10 +1895,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -1905,10 +1906,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -1916,10 +1917,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -1927,10 +1928,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -1949,7 +1950,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
         <v>38</v>
@@ -1960,7 +1961,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
@@ -1971,7 +1972,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
@@ -1982,7 +1983,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
@@ -1993,7 +1994,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
         <v>38</v>
@@ -2004,7 +2005,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
@@ -2015,7 +2016,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
@@ -2026,7 +2027,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
@@ -2037,7 +2038,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
@@ -2048,7 +2049,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
         <v>38</v>
@@ -2059,7 +2060,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
@@ -2070,7 +2071,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
@@ -2081,10 +2082,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -2092,10 +2093,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -2103,10 +2104,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -2114,10 +2115,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -2125,10 +2126,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -2136,10 +2137,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -2147,10 +2148,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -2158,10 +2159,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -2169,7 +2170,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
         <v>36</v>

--- a/app/config/tables/MIFSCAR/forms/MIFSCAR/MIFSCAR.xlsx
+++ b/app/config/tables/MIFSCAR/forms/MIFSCAR/MIFSCAR.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727F5C68-0BAB-46CE-95AB-907AE01CCEA8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81488D8A-0269-4FEF-8F66-6B568D971256}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,6 @@
     <sheet name="model" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="127">
   <si>
     <t>setting_name</t>
   </si>
@@ -39,9 +38,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>display.tittle.text</t>
-  </si>
-  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -72,9 +68,6 @@
     <t>display.prompt.text</t>
   </si>
   <si>
-    <t>display.prompt.text.portuguese</t>
-  </si>
-  <si>
     <t>begin screen</t>
   </si>
   <si>
@@ -90,18 +83,12 @@
     <t>display.title.text</t>
   </si>
   <si>
-    <t>display.title.text.portuguese</t>
-  </si>
-  <si>
     <t>isSessionVariable</t>
   </si>
   <si>
     <t>display.locale.text</t>
   </si>
   <si>
-    <t>display.locale.text.portuguese</t>
-  </si>
-  <si>
     <t>English</t>
   </si>
   <si>
@@ -117,9 +104,6 @@
     <t>default</t>
   </si>
   <si>
-    <t>portuguese</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -403,6 +387,30 @@
   </si>
   <si>
     <t>Quantos cicatrizes?</t>
+  </si>
+  <si>
+    <t>data('CICA1') != '3'</t>
+  </si>
+  <si>
+    <t>data('CICA2') != '3'</t>
+  </si>
+  <si>
+    <t>data('CICA3') != '3'</t>
+  </si>
+  <si>
+    <t>data('CICA4') != '3'</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>display.title.text.english</t>
+  </si>
+  <si>
+    <t>display.locale.text.english</t>
+  </si>
+  <si>
+    <t>display.prompt.text.english</t>
   </si>
 </sst>
 </file>
@@ -776,7 +784,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,29 +804,29 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>270519</v>
@@ -826,59 +834,59 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -889,11 +897,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,681 +919,733 @@
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s">
-        <v>62</v>
-      </c>
-      <c r="G14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" t="s">
-        <v>64</v>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>65</v>
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>14</v>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="G18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" t="s">
-        <v>57</v>
+      <c r="B18" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>72</v>
+      <c r="B19" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>75</v>
+        <v>39</v>
+      </c>
+      <c r="G20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" t="s">
-        <v>78</v>
+        <v>65</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>15</v>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>40</v>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" t="s">
-        <v>81</v>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" t="s">
-        <v>82</v>
-      </c>
-      <c r="G27" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" t="s">
-        <v>61</v>
+      <c r="B27" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="H28" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>65</v>
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G29" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="H29" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+      <c r="C30" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>14</v>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" t="s">
-        <v>80</v>
-      </c>
-      <c r="H32" t="s">
-        <v>81</v>
+      <c r="B32" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
+      <c r="G36" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F37" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F33" t="s">
+      <c r="H38" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" t="s">
+        <v>84</v>
+      </c>
+      <c r="H44" t="s">
         <v>85</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>69</v>
-      </c>
-      <c r="F34" t="s">
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" t="s">
         <v>86</v>
       </c>
-      <c r="G34" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
-        <v>36</v>
-      </c>
-      <c r="F35" t="s">
-        <v>87</v>
-      </c>
-      <c r="G35" t="s">
-        <v>77</v>
-      </c>
-      <c r="H35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>44</v>
-      </c>
-      <c r="G40" t="s">
-        <v>89</v>
-      </c>
-      <c r="H40" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" t="s">
-        <v>58</v>
-      </c>
-      <c r="F41" t="s">
-        <v>91</v>
-      </c>
-      <c r="G41" t="s">
-        <v>60</v>
-      </c>
-      <c r="H41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" t="s">
-        <v>92</v>
-      </c>
-      <c r="G42" t="s">
-        <v>63</v>
-      </c>
-      <c r="H42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D43" t="s">
-        <v>65</v>
-      </c>
-      <c r="F43" t="s">
-        <v>93</v>
-      </c>
-      <c r="G43" t="s">
-        <v>67</v>
-      </c>
-      <c r="H43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>14</v>
+      <c r="G45" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>44</v>
-      </c>
-      <c r="G46" t="s">
-        <v>89</v>
-      </c>
-      <c r="H46" t="s">
-        <v>90</v>
+      <c r="B46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" t="s">
+        <v>87</v>
+      </c>
+      <c r="G47" t="s">
+        <v>58</v>
+      </c>
+      <c r="H47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>64</v>
+      </c>
+      <c r="F53" t="s">
+        <v>89</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" t="s">
+        <v>90</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F47" t="s">
+      <c r="H54" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>31</v>
+      </c>
+      <c r="F55" t="s">
+        <v>91</v>
+      </c>
+      <c r="G55" t="s">
+        <v>72</v>
+      </c>
+      <c r="H55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" t="s">
+        <v>53</v>
+      </c>
+      <c r="F60" t="s">
+        <v>93</v>
+      </c>
+      <c r="G60" t="s">
+        <v>55</v>
+      </c>
+      <c r="H60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" t="s">
+        <v>27</v>
+      </c>
+      <c r="F62" t="s">
         <v>94</v>
       </c>
-      <c r="G47" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H47" s="6" t="s">
+      <c r="G62" t="s">
+        <v>58</v>
+      </c>
+      <c r="H62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>60</v>
+      </c>
+      <c r="F64" t="s">
+        <v>95</v>
+      </c>
+      <c r="G64" t="s">
+        <v>62</v>
+      </c>
+      <c r="H64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>39</v>
+      </c>
+      <c r="G67" t="s">
+        <v>96</v>
+      </c>
+      <c r="H67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>64</v>
+      </c>
+      <c r="F68" t="s">
+        <v>98</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>64</v>
+      </c>
+      <c r="F69" t="s">
+        <v>99</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70" t="s">
+        <v>100</v>
+      </c>
+      <c r="G70" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>69</v>
-      </c>
-      <c r="F48" t="s">
-        <v>95</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>36</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
-      </c>
-      <c r="G49" t="s">
-        <v>77</v>
-      </c>
-      <c r="H49" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54" t="s">
-        <v>58</v>
-      </c>
-      <c r="F54" t="s">
-        <v>98</v>
-      </c>
-      <c r="G54" t="s">
-        <v>60</v>
-      </c>
-      <c r="H54" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
-        <v>38</v>
-      </c>
-      <c r="E55" t="s">
-        <v>32</v>
-      </c>
-      <c r="F55" t="s">
-        <v>99</v>
-      </c>
-      <c r="G55" t="s">
-        <v>63</v>
-      </c>
-      <c r="H55" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
-        <v>65</v>
-      </c>
-      <c r="F56" t="s">
-        <v>100</v>
-      </c>
-      <c r="G56" t="s">
-        <v>67</v>
-      </c>
-      <c r="H56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D59" t="s">
-        <v>44</v>
-      </c>
-      <c r="G59" t="s">
-        <v>101</v>
-      </c>
-      <c r="H59" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
-        <v>69</v>
-      </c>
-      <c r="F60" t="s">
-        <v>103</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D61" t="s">
-        <v>69</v>
-      </c>
-      <c r="F61" t="s">
-        <v>104</v>
-      </c>
-      <c r="G61" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D62" t="s">
-        <v>36</v>
-      </c>
-      <c r="F62" t="s">
-        <v>105</v>
-      </c>
-      <c r="G62" t="s">
-        <v>77</v>
-      </c>
-      <c r="H62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="7"/>
-      <c r="B64" t="s">
-        <v>40</v>
+      <c r="H70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="7"/>
+      <c r="B72" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1612,30 +1672,30 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1645,11 +1705,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,189 +1722,172 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B3" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B4" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B6" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B8" t="str">
-        <f>"0"</f>
-        <v>0</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="C8" t="str">
-        <f>"0"</f>
-        <v>0</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
       <c r="D8" t="str">
-        <f>"0"</f>
-        <v>0</v>
+        <f>"1"</f>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B9" t="str">
-        <f>"1"</f>
-        <v>1</v>
+        <f>"2"</f>
+        <v>2</v>
       </c>
       <c r="C9" t="str">
-        <f>"1"</f>
-        <v>1</v>
+        <f>"2"</f>
+        <v>2</v>
       </c>
       <c r="D9" t="str">
-        <f>"1"</f>
-        <v>1</v>
+        <f>"2"</f>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B10" t="str">
-        <f>"2"</f>
-        <v>2</v>
+        <f>"3"</f>
+        <v>3</v>
       </c>
       <c r="C10" t="str">
-        <f>"2"</f>
-        <v>2</v>
+        <f>"3"</f>
+        <v>3</v>
       </c>
       <c r="D10" t="str">
-        <f>"2"</f>
-        <v>2</v>
+        <f>"3"</f>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B11" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="C11" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-      <c r="D11" t="str">
-        <f>"3"</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="C12" t="str">
+      <c r="C11" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D11" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
@@ -1859,7 +1902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
@@ -1873,21 +1916,21 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -1895,10 +1938,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -1906,10 +1949,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -1917,10 +1960,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -1928,10 +1971,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -1939,10 +1982,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -1950,10 +1993,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
@@ -1961,10 +2004,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -1972,10 +2015,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -1983,10 +2026,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
@@ -1994,10 +2037,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -2005,10 +2048,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -2016,10 +2059,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
@@ -2027,10 +2070,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -2038,10 +2081,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -2049,10 +2092,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C17" t="b">
         <v>0</v>
@@ -2060,10 +2103,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -2071,10 +2114,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -2082,10 +2125,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -2093,10 +2136,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -2104,10 +2147,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -2115,10 +2158,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -2126,10 +2169,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -2137,10 +2180,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -2148,10 +2191,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -2159,10 +2202,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
@@ -2170,10 +2213,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C28" t="b">
         <v>0</v>
@@ -2181,10 +2224,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C29" t="b">
         <v>0</v>

--- a/app/config/tables/MIFSCAR/forms/MIFSCAR/MIFSCAR.xlsx
+++ b/app/config/tables/MIFSCAR/forms/MIFSCAR/MIFSCAR.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81488D8A-0269-4FEF-8F66-6B568D971256}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6858988-25D6-48BB-B6E9-030FADDE1086}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="123">
   <si>
     <t>setting_name</t>
   </si>
@@ -150,18 +150,6 @@
   </si>
   <si>
     <t>note</t>
-  </si>
-  <si>
-    <t>Scars</t>
-  </si>
-  <si>
-    <t>Cicatriz</t>
-  </si>
-  <si>
-    <t>Date of examination</t>
-  </si>
-  <si>
-    <t>Data de leitura</t>
   </si>
   <si>
     <t>CICA</t>
@@ -804,13 +792,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
@@ -845,10 +833,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -864,7 +852,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -875,18 +863,18 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -897,11 +885,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:H1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,7 +925,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>11</v>
@@ -953,24 +941,27 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -979,75 +970,75 @@
         <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H7" t="s">
-        <v>118</v>
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" t="s">
-        <v>52</v>
+      <c r="C12" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1055,32 +1046,26 @@
         <v>33</v>
       </c>
       <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
         <v>53</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>54</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>55</v>
-      </c>
-      <c r="H13" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
         <v>57</v>
@@ -1094,118 +1079,124 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
         <v>60</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F19" t="s">
         <v>61</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G19" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H19" s="6" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" t="s">
-        <v>52</v>
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="6" t="s">
         <v>67</v>
       </c>
+      <c r="G21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>70</v>
+      <c r="B22" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F23" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" t="s">
-        <v>73</v>
+      <c r="B23" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>13</v>
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>34</v>
       </c>
-      <c r="C26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H28" t="s">
-        <v>76</v>
+      <c r="C28" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
@@ -1213,35 +1204,29 @@
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G29" t="s">
+        <v>54</v>
+      </c>
+      <c r="H29" t="s">
         <v>55</v>
-      </c>
-      <c r="H29" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="F31" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s">
         <v>58</v>
@@ -1252,118 +1237,124 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" t="s">
+        <v>71</v>
+      </c>
+      <c r="H34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
         <v>60</v>
       </c>
-      <c r="F33" t="s">
-        <v>79</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="F35" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H35" s="6" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G36" t="s">
-        <v>75</v>
-      </c>
-      <c r="H36" t="s">
-        <v>76</v>
+        <v>60</v>
+      </c>
+      <c r="F36" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="F37" t="s">
-        <v>80</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>67</v>
+        <v>78</v>
+      </c>
+      <c r="G37" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>64</v>
-      </c>
-      <c r="F38" t="s">
-        <v>81</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>70</v>
+      <c r="B38" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>31</v>
-      </c>
-      <c r="F39" t="s">
-        <v>82</v>
-      </c>
-      <c r="G39" t="s">
-        <v>72</v>
-      </c>
-      <c r="H39" t="s">
-        <v>73</v>
+      <c r="B39" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>13</v>
+        <v>34</v>
+      </c>
+      <c r="C40" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+      <c r="D42" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" t="s">
+        <v>80</v>
+      </c>
+      <c r="H42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" t="s">
+        <v>82</v>
+      </c>
+      <c r="G43" t="s">
+        <v>51</v>
+      </c>
+      <c r="H43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>34</v>
       </c>
-      <c r="C42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>39</v>
-      </c>
-      <c r="G44" t="s">
-        <v>84</v>
-      </c>
-      <c r="H44" t="s">
-        <v>85</v>
+      <c r="C44" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
@@ -1371,35 +1362,29 @@
         <v>33</v>
       </c>
       <c r="E45" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F45" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G45" t="s">
+        <v>54</v>
+      </c>
+      <c r="H45" t="s">
         <v>55</v>
-      </c>
-      <c r="H45" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>33</v>
-      </c>
-      <c r="E47" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="F47" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G47" t="s">
         <v>58</v>
@@ -1410,107 +1395,113 @@
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G50" t="s">
+        <v>80</v>
+      </c>
+      <c r="H50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
         <v>60</v>
       </c>
-      <c r="F49" t="s">
-        <v>88</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="F51" t="s">
+        <v>85</v>
+      </c>
+      <c r="G51" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H51" s="6" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>39</v>
-      </c>
-      <c r="G52" t="s">
-        <v>84</v>
-      </c>
-      <c r="H52" t="s">
-        <v>85</v>
+        <v>60</v>
+      </c>
+      <c r="F52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="F53" t="s">
-        <v>89</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>67</v>
+        <v>87</v>
+      </c>
+      <c r="G53" t="s">
+        <v>68</v>
+      </c>
+      <c r="H53" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
-        <v>64</v>
-      </c>
-      <c r="F54" t="s">
-        <v>90</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>70</v>
+      <c r="B54" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D55" t="s">
-        <v>31</v>
-      </c>
-      <c r="F55" t="s">
-        <v>91</v>
-      </c>
-      <c r="G55" t="s">
-        <v>72</v>
-      </c>
-      <c r="H55" t="s">
-        <v>73</v>
+      <c r="B55" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>13</v>
+        <v>34</v>
+      </c>
+      <c r="C56" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>34</v>
-      </c>
-      <c r="C58" t="s">
-        <v>92</v>
+      <c r="D58" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" t="s">
+        <v>49</v>
+      </c>
+      <c r="F58" t="s">
+        <v>89</v>
+      </c>
+      <c r="G58" t="s">
+        <v>51</v>
+      </c>
+      <c r="H58" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>12</v>
+        <v>34</v>
+      </c>
+      <c r="C59" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -1518,35 +1509,29 @@
         <v>33</v>
       </c>
       <c r="E60" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="F60" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G60" t="s">
+        <v>54</v>
+      </c>
+      <c r="H60" t="s">
         <v>55</v>
-      </c>
-      <c r="H60" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>34</v>
-      </c>
-      <c r="C61" t="s">
-        <v>122</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>33</v>
-      </c>
-      <c r="E62" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="F62" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G62" t="s">
         <v>58</v>
@@ -1557,94 +1542,75 @@
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D64" t="s">
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>39</v>
+      </c>
+      <c r="G65" t="s">
+        <v>92</v>
+      </c>
+      <c r="H65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
         <v>60</v>
       </c>
-      <c r="F64" t="s">
-        <v>95</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="F66" t="s">
+        <v>94</v>
+      </c>
+      <c r="G66" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H66" s="6" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>39</v>
-      </c>
-      <c r="G67" t="s">
-        <v>96</v>
-      </c>
-      <c r="H67" t="s">
-        <v>97</v>
+        <v>60</v>
+      </c>
+      <c r="F67" t="s">
+        <v>95</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="F68" t="s">
-        <v>98</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>67</v>
+        <v>96</v>
+      </c>
+      <c r="G68" t="s">
+        <v>68</v>
+      </c>
+      <c r="H68" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D69" t="s">
-        <v>64</v>
-      </c>
-      <c r="F69" t="s">
-        <v>99</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>70</v>
+      <c r="B69" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D70" t="s">
-        <v>31</v>
-      </c>
-      <c r="F70" t="s">
-        <v>100</v>
-      </c>
-      <c r="G70" t="s">
-        <v>72</v>
-      </c>
-      <c r="H70" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="7"/>
-      <c r="B72" t="s">
+      <c r="A70" s="7"/>
+      <c r="B70" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1672,30 +1638,30 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1728,7 +1694,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>16</v>
@@ -1781,44 +1747,44 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B6" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>30</v>
@@ -1826,7 +1792,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B8" t="str">
         <f>"1"</f>
@@ -1843,7 +1809,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B9" t="str">
         <f>"2"</f>
@@ -1860,7 +1826,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B10" t="str">
         <f>"3"</f>
@@ -1877,7 +1843,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B11" t="str">
         <f>"4"</f>
@@ -1900,11 +1866,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,10 +1893,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -1938,10 +1904,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
@@ -1949,10 +1915,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -1960,10 +1926,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
@@ -1971,10 +1937,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -1982,7 +1948,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>33</v>
@@ -1993,7 +1959,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
@@ -2004,10 +1970,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -2015,10 +1981,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -2026,7 +1992,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
         <v>33</v>
@@ -2040,7 +2006,7 @@
         <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -2051,7 +2017,7 @@
         <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
@@ -2059,7 +2025,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
@@ -2073,7 +2039,7 @@
         <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -2081,10 +2047,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" t="b">
         <v>0</v>
@@ -2092,7 +2058,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
         <v>33</v>
@@ -2103,10 +2069,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" t="b">
         <v>0</v>
@@ -2114,10 +2080,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C19" t="b">
         <v>0</v>
@@ -2125,10 +2091,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C20" t="b">
         <v>0</v>
@@ -2136,10 +2102,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C21" t="b">
         <v>0</v>
@@ -2147,10 +2113,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C22" t="b">
         <v>0</v>
@@ -2158,10 +2124,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C23" t="b">
         <v>0</v>
@@ -2169,10 +2135,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C24" t="b">
         <v>0</v>
@@ -2180,10 +2146,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C25" t="b">
         <v>0</v>
@@ -2191,10 +2157,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C26" t="b">
         <v>0</v>
@@ -2202,41 +2168,38 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>106</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" t="b">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C62">
-    <sortCondition ref="A2"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>